--- a/shiny_application/global/database/jobs.xlsx
+++ b/shiny_application/global/database/jobs.xlsx
@@ -1,38 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A117644\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B0E6A9-E794-4086-AA35-9817B24CD968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="jobs" sheetId="1" r:id="rId1"/>
+    <sheet name="jobs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>job_id</t>
+    <t xml:space="preserve">job_id</t>
   </si>
   <si>
-    <t>job_data</t>
+    <t xml:space="preserve">job_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"job_id":1,"customer":"Max","site":"6 Cliff Parade","cs_number":"123","dwg_number":"456","start_date":19156,"required_by":19184,"hours_mill":5,"hours_program":10,"hours_cnc":15,"hours_veneer":20,"hours_bench":25,"hours_spray":30,"hours_dispatch":35,"active":1,"created_by":"a117644@r02.xlgs.local","created_on":"2022-06-13 15:28:36","updated_by":"a117644@r02.xlgs.local","updated_on":"2022-06-13 15:28:36","start_date_mill":19156,"days_mill":1,"end_date_mill":19157,"start_date_program":19157,"days_program":2,"end_date_program":19163,"start_date_cnc":19163,"days_cnc":3,"end_date_cnc":19166,"start_date_veneer":19166,"days_veneer":3,"end_date_veneer":19171,"start_date_bench":19171,"days_bench":4,"end_date_bench":19177,"start_date_spray":19177,"days_spray":5,"end_date_spray":19184,"start_date_dispatch":19184,"days_dispatch":5,"end_date_dispatch":19191,"days_overrun":7,"start_date_recommended":19149}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"job_id":2,"customer":"Kerry","site":"6 Cliff Parade","cs_number":"321","dwg_number":"654","start_date":19158,"required_by":19173,"hours_mill":5,"hours_program":0,"hours_cnc":0,"hours_veneer":10,"hours_bench":10,"hours_spray":10,"hours_dispatch":1,"active":1,"created_by":"a117644@r02.xlgs.local","created_on":"2022-06-13 16:00:50","updated_by":"a117644@r02.xlgs.local","updated_on":"2022-06-13 16:00:50","start_date_mill":19158,"days_mill":1,"end_date_mill":19163,"start_date_program":19163,"days_program":0,"end_date_program":19163,"start_date_cnc":19163,"days_cnc":0,"end_date_cnc":19163,"start_date_veneer":19163,"days_veneer":2,"end_date_veneer":19165,"start_date_bench":19165,"days_bench":2,"end_date_bench":19167,"start_date_spray":19167,"days_spray":2,"end_date_spray":19171,"start_date_dispatch":19171,"days_dispatch":1,"end_date_dispatch":19172,"days_overrun":0,"start_date_recommended":19158}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -68,15 +67,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -358,25 +348,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/shiny_application/global/database/jobs.xlsx
+++ b/shiny_application/global/database/jobs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">job_id</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t xml:space="preserve">[{"job_id":2,"customer":"Kerry","site":"6 Cliff Parade","cs_number":"321","dwg_number":"654","start_date":19158,"required_by":19173,"hours_mill":5,"hours_program":0,"hours_cnc":0,"hours_veneer":10,"hours_bench":10,"hours_spray":10,"hours_dispatch":1,"active":1,"created_by":"a117644@r02.xlgs.local","created_on":"2022-06-13 16:00:50","updated_by":"a117644@r02.xlgs.local","updated_on":"2022-06-13 16:00:50","start_date_mill":19158,"days_mill":1,"end_date_mill":19163,"start_date_program":19163,"days_program":0,"end_date_program":19163,"start_date_cnc":19163,"days_cnc":0,"end_date_cnc":19163,"start_date_veneer":19163,"days_veneer":2,"end_date_veneer":19165,"start_date_bench":19165,"days_bench":2,"end_date_bench":19167,"start_date_spray":19167,"days_spray":2,"end_date_spray":19171,"start_date_dispatch":19171,"days_dispatch":1,"end_date_dispatch":19172,"days_overrun":0,"start_date_recommended":19158}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"job_id":3,"customer":"Alex","site":"Brighton Avenue","cs_number":"666","dwg_number":"0","start_date":19180,"required_by":19208,"hours_mill":25,"hours_program":10,"hours_cnc":20,"hours_veneer":0,"hours_bench":10,"hours_spray":0,"hours_dispatch":1,"active":1,"created_by":"a117644@r02.xlgs.local","created_on":"2022-07-07 17:37:37","updated_by":"a117644@r02.xlgs.local","updated_on":"2022-07-07 17:37:37","start_date_mill":19180,"days_mill":4,"end_date_mill":19186,"start_date_program":19186,"days_program":2,"end_date_program":19188,"start_date_cnc":19188,"days_cnc":3,"end_date_cnc":19193,"start_date_veneer":19193,"days_veneer":0,"end_date_veneer":19193,"start_date_bench":19193,"days_bench":2,"end_date_bench":19195,"start_date_spray":19195,"days_spray":0,"end_date_spray":19195,"start_date_dispatch":19195,"days_dispatch":1,"end_date_dispatch":19198,"days_overrun":0,"start_date_recommended":19180}]</t>
   </si>
 </sst>
 </file>
@@ -379,6 +382,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/shiny_application/global/database/jobs.xlsx
+++ b/shiny_application/global/database/jobs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -26,13 +26,13 @@
     <t xml:space="preserve">[{"job_id":2,"customer":"Kerry","site":"6 Cliff Parade","cs_number":"321","dwg_number":"654","start_date":19158,"required_by":19173,"hours_mill":5,"hours_program":0,"hours_cnc":0,"hours_veneer":10,"hours_bench":10,"hours_spray":10,"hours_dispatch":1,"active":1,"created_by":"a117644@r02.xlgs.local","created_on":"2022-06-13 16:00:50","updated_by":"a117644@r02.xlgs.local","updated_on":"2022-06-13 16:00:50","start_date_mill":19158,"days_mill":1,"end_date_mill":19163,"start_date_program":19163,"days_program":0,"end_date_program":19163,"start_date_cnc":19163,"days_cnc":0,"end_date_cnc":19163,"start_date_veneer":19163,"days_veneer":2,"end_date_veneer":19165,"start_date_bench":19165,"days_bench":2,"end_date_bench":19167,"start_date_spray":19167,"days_spray":2,"end_date_spray":19171,"start_date_dispatch":19171,"days_dispatch":1,"end_date_dispatch":19172,"days_overrun":0,"start_date_recommended":19158}]</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"job_id":3,"customer":"Alex","site":"Brighton Avenue","cs_number":"666","dwg_number":"0","start_date":19180,"required_by":19208,"hours_mill":25,"hours_program":10,"hours_cnc":20,"hours_veneer":0,"hours_bench":10,"hours_spray":0,"hours_dispatch":1,"active":1,"created_by":"a117644@r02.xlgs.local","created_on":"2022-07-07 17:37:37","updated_by":"a117644@r02.xlgs.local","updated_on":"2022-07-07 17:37:37","start_date_mill":19180,"days_mill":4,"end_date_mill":19186,"start_date_program":19186,"days_program":2,"end_date_program":19188,"start_date_cnc":19188,"days_cnc":3,"end_date_cnc":19193,"start_date_veneer":19193,"days_veneer":0,"end_date_veneer":19193,"start_date_bench":19193,"days_bench":2,"end_date_bench":19195,"start_date_spray":19195,"days_spray":0,"end_date_spray":19195,"start_date_dispatch":19195,"days_dispatch":1,"end_date_dispatch":19198,"days_overrun":0,"start_date_recommended":19180}]</t>
+    <t xml:space="preserve">[{"job_id":3,"customer":"Alex","site":"Brighton Avenue","cs_number":"666","dwg_number":"0","start_date":19180,"required_by":19208,"hours_mill":25,"hours_program":10,"hours_cnc":20,"hours_veneer":0,"hours_bench":10,"hours_spray":0,"hours_dispatch":1,"active":0,"created_by":"a117644@r02.xlgs.local","created_on":"2022-07-07 17:37:37","updated_by":"a117644@r02.xlgs.local","updated_on":"2022-07-07 17:37:37","start_date_mill":19180,"days_mill":4,"end_date_mill":19186,"start_date_program":19186,"days_program":2,"end_date_program":19188,"start_date_cnc":19188,"days_cnc":3,"end_date_cnc":19193,"start_date_veneer":19193,"days_veneer":0,"end_date_veneer":19193,"start_date_bench":19193,"days_bench":2,"end_date_bench":19195,"start_date_spray":19195,"days_spray":0,"end_date_spray":19195,"start_date_dispatch":19195,"days_dispatch":1,"end_date_dispatch":19198,"days_overrun":0,"start_date_recommended":19180}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -351,12 +351,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -387,6 +387,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
